--- a/data/ngram_stats/xpos_onegrams.xlsx
+++ b/data/ngram_stats/xpos_onegrams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C604"/>
+  <dimension ref="A1:C603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         <v>0.800190379867329</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5808621216753286</v>
+        <v>0.6114338122898196</v>
       </c>
     </row>
     <row r="67">
@@ -1417,7 +1417,7 @@
         <v>0.3242407115447541</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2751452155304189</v>
+        <v>0.3057169061449098</v>
       </c>
     </row>
     <row r="77">
@@ -2067,7 +2067,7 @@
         <v>0.2052532944641104</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2140018343014369</v>
+        <v>0.1834301436869459</v>
       </c>
     </row>
     <row r="127">
@@ -2080,7 +2080,7 @@
         <v>0.4224053306362852</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5502904310608377</v>
+        <v>0.5808621216753286</v>
       </c>
     </row>
     <row r="128">
@@ -2093,7 +2093,7 @@
         <v>2.04063420293304</v>
       </c>
       <c r="C128" t="n">
-        <v>2.231733414857842</v>
+        <v>2.262305105472333</v>
       </c>
     </row>
     <row r="129">
@@ -2613,7 +2613,7 @@
         <v>0.7763928964512004</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6725771935188016</v>
+        <v>0.7031488841332926</v>
       </c>
     </row>
     <row r="169">
@@ -2626,7 +2626,7 @@
         <v>0.9667727637802304</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4585753592173648</v>
+        <v>0.4280036686028738</v>
       </c>
     </row>
     <row r="170">
@@ -4056,7 +4056,7 @@
         <v>4.738673885236636</v>
       </c>
       <c r="C279" t="n">
-        <v>3.515744420666463</v>
+        <v>3.485172730051972</v>
       </c>
     </row>
     <row r="280">
@@ -6032,7 +6032,7 @@
         <v>0.1219621025076598</v>
       </c>
       <c r="C431" t="n">
-        <v>0.2140018343014369</v>
+        <v>0.2445735249159278</v>
       </c>
     </row>
     <row r="432">
@@ -6305,7 +6305,7 @@
         <v>0.05651902311330577</v>
       </c>
       <c r="C452" t="n">
-        <v>0.1528584530724549</v>
+        <v>0.1834301436869459</v>
       </c>
     </row>
     <row r="453">
@@ -6409,7 +6409,7 @@
         <v>0.03569622512419312</v>
       </c>
       <c r="C460" t="n">
-        <v>0.1222867624579639</v>
+        <v>0.09171507184347294</v>
       </c>
     </row>
     <row r="461">
@@ -7488,7 +7488,7 @@
         <v>1.356456554719339</v>
       </c>
       <c r="C543" t="n">
-        <v>1.650871293182513</v>
+        <v>1.681442983797004</v>
       </c>
     </row>
     <row r="544">
@@ -7618,7 +7618,7 @@
         <v>2.510634500401582</v>
       </c>
       <c r="C553" t="n">
-        <v>1.773158055640477</v>
+        <v>1.712014674411495</v>
       </c>
     </row>
     <row r="554">
@@ -7683,7 +7683,7 @@
         <v>1.061962697444745</v>
       </c>
       <c r="C558" t="n">
-        <v>1.070009171507184</v>
+        <v>1.039437480892693</v>
       </c>
     </row>
     <row r="559">
@@ -7800,7 +7800,7 @@
         <v>0.01487342713508047</v>
       </c>
       <c r="C567" t="n">
-        <v>0.03057169061449098</v>
+        <v>0.06114338122898196</v>
       </c>
     </row>
     <row r="568">
@@ -7826,7 +7826,7 @@
         <v>1.433798375821757</v>
       </c>
       <c r="C569" t="n">
-        <v>1.008865790278202</v>
+        <v>0.9782940996637114</v>
       </c>
     </row>
     <row r="570">
@@ -8261,26 +8261,13 @@
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>ppron3:sg:loc:m1:ter:akc:npraep</t>
+          <t>praet:sg:ter:imperf</t>
         </is>
       </c>
       <c r="B603" t="n">
         <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.03057169061449098</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="inlineStr">
-        <is>
-          <t>praet:sg:ter:imperf</t>
-        </is>
-      </c>
-      <c r="B604" t="n">
-        <v>0</v>
-      </c>
-      <c r="C604" t="n">
         <v>0.03057169061449098</v>
       </c>
     </row>
